--- a/data/G&L_Expanded.xlsx
+++ b/data/G&L_Expanded.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Exercise Date</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Acquisition Cost Per Share</t>
   </si>
   <si>
+    <t>ESPP</t>
+  </si>
+  <si>
     <t>Covered Status</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Adjusted Gain (Loss) Per Share</t>
   </si>
   <si>
+    <t>Qualified</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
     <t>Proceeds Per Share</t>
   </si>
   <si>
@@ -94,6 +103,15 @@
     <t>11812625</t>
   </si>
   <si>
+    <t>28.538</t>
+  </si>
+  <si>
+    <t>05/02/2022</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
     <t>Gain/Loss</t>
   </si>
   <si>
@@ -109,6 +127,12 @@
     <t>Grant Number</t>
   </si>
   <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
     <t>Long</t>
   </si>
   <si>
@@ -127,6 +151,9 @@
     <t>Order Number</t>
   </si>
   <si>
+    <t>Qualifying Disposition</t>
+  </si>
+  <si>
     <t>Adjusted Cost Basis</t>
   </si>
   <si>
@@ -161,6 +188,9 @@
   </si>
   <si>
     <t>Grant Date FMV</t>
+  </si>
+  <si>
+    <t>Sell ESPP</t>
   </si>
   <si>
     <t>Record Type</t>
@@ -174,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#.##0.00_)"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00_)"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -530,7 +560,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -538,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>7</v>
@@ -619,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>9</v>
@@ -640,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -657,14 +687,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>24.258</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -673,16 +703,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3">
-        <v>46.9</v>
+        <v>90.57</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3">
-        <v>46.9</v>
+        <v>66.312</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -706,19 +736,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -757,19 +787,19 @@
         <v>23.3825</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" t="s">
         <v>11</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="1">
         <v>27.42</v>
@@ -784,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="s">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" s="1">
         <v>23.5175</v>
@@ -803,6 +833,104 @@
       </c>
       <c r="AK3">
         <v>65054370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24.258</v>
+      </c>
+      <c r="G4" s="1">
+        <v>24.258</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.02395</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.02395</v>
+      </c>
+      <c r="J4" s="4">
+        <v>29.28195</v>
+      </c>
+      <c r="K4" s="4">
+        <v>29.28195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43.67</v>
+      </c>
+      <c r="N4" s="1">
+        <v>43.67</v>
+      </c>
+      <c r="O4" s="4">
+        <v>19.412</v>
+      </c>
+      <c r="P4" s="4">
+        <v>14.38805</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>14.38805</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>33.493</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5.02395</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>24.258</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>65298818</v>
       </c>
     </row>
   </sheetData>
